--- a/data/extracted_data/raw_round2/data/Kankaanpaa_etal_2005_Fig7.xlsx
+++ b/data/extracted_data/raw_round2/data/Kankaanpaa_etal_2005_Fig7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{E14EB2A0-46C6-834F-BBDD-2B32731B9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE811FD6-9926-E44C-959B-E16A0EECC777}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{E14EB2A0-46C6-834F-BBDD-2B32731B9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D266D9CD-7FE6-334C-B314-AA0F33C5D10A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{7679BA49-03DA-A647-9292-B5A0953AA1C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
   <si>
     <t>treatment</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -119,10 +122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A33166-D16E-1842-9811-BF0819D1CE52}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -563,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>14</v>
